--- a/data/QTEKdoorWirechart.xlsx
+++ b/data/QTEKdoorWirechart.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="143">
   <si>
     <t>Length</t>
   </si>
@@ -65,10 +65,16 @@
     <t>TB-2</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
-    <t>F</t>
+    <t>NF</t>
   </si>
   <si>
     <t>blue/white</t>
@@ -77,6 +83,12 @@
     <t>002-10A</t>
   </si>
   <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Running Light</t>
+  </si>
+  <si>
     <t>green/yellow</t>
   </si>
   <si>
@@ -84,12 +96,6 @@
   </si>
   <si>
     <t>O0001</t>
-  </si>
-  <si>
-    <t>Running Light</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>002-11B</t>
@@ -879,7 +885,7 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="3">
-        <v>70.0</v>
+        <v>50.0</v>
       </c>
       <c r="B2" s="3">
         <v>16.0</v>
@@ -903,27 +909,27 @@
         <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="3">
-        <v>70.0</v>
+        <v>45.0</v>
       </c>
       <c r="B3" s="3">
         <v>16.0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -938,72 +944,72 @@
         <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K3" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="3">
-        <v>70.0</v>
+        <v>45.0</v>
       </c>
       <c r="B4" s="3">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="J4" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K4" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>70.0</v>
       </c>
       <c r="B5" s="3">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1012,17 +1018,17 @@
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="3">
-        <v>70.0</v>
+      <c r="A6" s="4">
+        <v>55.0</v>
       </c>
       <c r="B6" s="3">
         <v>16.0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
@@ -1031,13 +1037,13 @@
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>16</v>
@@ -1048,7 +1054,7 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="3">
-        <v>70.0</v>
+        <v>46.0</v>
       </c>
       <c r="B7" s="3">
         <v>16.0</v>
@@ -1057,22 +1063,22 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>16</v>
@@ -1092,13 +1098,13 @@
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
@@ -1114,7 +1120,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="3">
-        <v>70.0</v>
+        <v>47.0</v>
       </c>
       <c r="B9" s="3">
         <v>16.0</v>
@@ -1123,25 +1129,25 @@
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K9" s="6" t="b">
         <v>0</v>
@@ -1149,7 +1155,7 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="3">
-        <v>70.0</v>
+        <v>47.0</v>
       </c>
       <c r="B10" s="3">
         <v>16.0</v>
@@ -1158,25 +1164,25 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K10" s="6" t="b">
         <v>0</v>
@@ -1184,7 +1190,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="3">
-        <v>70.0</v>
+        <v>42.0</v>
       </c>
       <c r="B11" s="3">
         <v>16.0</v>
@@ -1193,25 +1199,25 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K11" s="6" t="b">
         <v>0</v>
@@ -1219,7 +1225,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="3">
-        <v>70.0</v>
+        <v>44.0</v>
       </c>
       <c r="B12" s="3">
         <v>16.0</v>
@@ -1228,25 +1234,25 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K12" s="6" t="b">
         <v>0</v>
@@ -1254,7 +1260,7 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="3">
-        <v>70.0</v>
+        <v>36.0</v>
       </c>
       <c r="B13" s="3">
         <v>16.0</v>
@@ -1263,22 +1269,22 @@
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>16</v>
@@ -1289,7 +1295,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="3">
-        <v>70.0</v>
+        <v>36.0</v>
       </c>
       <c r="B14" s="3">
         <v>16.0</v>
@@ -1298,22 +1304,22 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
@@ -1330,24 +1336,24 @@
         <v>12.0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="6" t="b">
+        <v>37</v>
+      </c>
+      <c r="K15" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1391,45 +1397,45 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M1" s="9"/>
       <c r="N1" s="10"/>
       <c r="O1" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -1438,19 +1444,19 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" s="7">
         <v>14.0</v>
@@ -1476,19 +1482,19 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H3" s="11">
         <v>14.0</v>
@@ -1513,13 +1519,13 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" s="7">
         <v>14.0</v>
@@ -1545,19 +1551,19 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H5" s="11">
         <v>14.0</v>
@@ -1583,19 +1589,19 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H6" s="7">
         <v>14.0</v>
@@ -1620,13 +1626,13 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H7" s="11">
         <v>14.0</v>
@@ -1652,19 +1658,19 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H8" s="7">
         <v>14.0</v>
@@ -1690,19 +1696,19 @@
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H9" s="11">
         <v>14.0</v>
@@ -1727,13 +1733,13 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>14.0</v>
@@ -1759,19 +1765,19 @@
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H11" s="11">
         <v>14.0</v>
@@ -1797,19 +1803,19 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>14.0</v>
@@ -1834,13 +1840,13 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H13" s="11">
         <v>14.0</v>
@@ -1866,19 +1872,19 @@
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
         <v>14.0</v>
@@ -1904,19 +1910,19 @@
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H15" s="11">
         <v>14.0</v>
@@ -1941,13 +1947,13 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>14.0</v>
@@ -1973,19 +1979,19 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H17" s="11">
         <v>14.0</v>
@@ -2011,19 +2017,19 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H18" s="7">
         <v>14.0</v>
@@ -2048,13 +2054,13 @@
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H19" s="11">
         <v>14.0</v>
@@ -2080,19 +2086,19 @@
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
         <v>14.0</v>
@@ -2118,19 +2124,19 @@
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H21" s="11">
         <v>14.0</v>
@@ -2155,13 +2161,13 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H22" s="7">
         <v>14.0</v>
@@ -2187,19 +2193,19 @@
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="E23" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H23" s="11">
         <v>14.0</v>
@@ -2225,19 +2231,19 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H24" s="7">
         <v>14.0</v>
@@ -2262,13 +2268,13 @@
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H25" s="11">
         <v>14.0</v>
@@ -2294,19 +2300,19 @@
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H26" s="7">
         <v>14.0</v>
@@ -2332,19 +2338,19 @@
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H27" s="11">
         <v>14.0</v>
@@ -2369,13 +2375,13 @@
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H28" s="7">
         <v>14.0</v>
@@ -2401,19 +2407,19 @@
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H29" s="11">
         <v>14.0</v>
@@ -2439,19 +2445,19 @@
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H30" s="7">
         <v>14.0</v>
@@ -2476,13 +2482,13 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H31" s="11">
         <v>14.0</v>
@@ -2508,19 +2514,19 @@
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H32" s="7">
         <v>14.0</v>
@@ -2546,19 +2552,19 @@
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H33" s="11">
         <v>14.0</v>
@@ -2583,13 +2589,13 @@
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H34" s="7">
         <v>14.0</v>
@@ -2615,19 +2621,19 @@
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H35" s="11">
         <v>14.0</v>
@@ -2653,19 +2659,19 @@
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H36" s="7">
         <v>14.0</v>
@@ -2690,13 +2696,13 @@
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H37" s="11">
         <v>14.0</v>
@@ -2722,19 +2728,19 @@
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H38" s="7">
         <v>14.0</v>
@@ -2760,19 +2766,19 @@
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H39" s="11">
         <v>14.0</v>
@@ -2797,13 +2803,13 @@
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H40" s="7">
         <v>14.0</v>
@@ -2829,19 +2835,19 @@
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H41" s="11">
         <v>14.0</v>
@@ -2867,19 +2873,19 @@
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H42" s="7">
         <v>14.0</v>
@@ -2904,13 +2910,13 @@
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H43" s="11">
         <v>14.0</v>
@@ -2936,19 +2942,19 @@
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H44" s="7">
         <v>14.0</v>
@@ -2974,19 +2980,19 @@
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H45" s="11">
         <v>14.0</v>
@@ -3011,13 +3017,13 @@
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H46" s="7">
         <v>14.0</v>
@@ -3043,19 +3049,19 @@
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H47" s="11">
         <v>14.0</v>
@@ -3081,19 +3087,19 @@
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H48" s="7">
         <v>14.0</v>
@@ -3118,13 +3124,13 @@
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H49" s="11">
         <v>14.0</v>
@@ -3150,19 +3156,19 @@
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H50" s="7">
         <v>14.0</v>
@@ -3188,19 +3194,19 @@
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H51" s="11">
         <v>14.0</v>
@@ -3225,13 +3231,13 @@
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H52" s="7">
         <v>14.0</v>
@@ -3257,19 +3263,19 @@
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H53" s="11">
         <v>14.0</v>
@@ -3295,19 +3301,19 @@
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H54" s="7">
         <v>14.0</v>
@@ -3332,13 +3338,13 @@
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H55" s="11">
         <v>14.0</v>
@@ -3364,19 +3370,19 @@
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H56" s="7">
         <v>14.0</v>
@@ -3402,19 +3408,19 @@
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H57" s="11">
         <v>14.0</v>
@@ -3439,13 +3445,13 @@
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H58" s="7">
         <v>14.0</v>
@@ -3471,19 +3477,19 @@
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H59" s="11">
         <v>14.0</v>
@@ -3509,19 +3515,19 @@
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H60" s="7">
         <v>14.0</v>
@@ -3546,13 +3552,13 @@
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H61" s="11">
         <v>14.0</v>
@@ -3578,19 +3584,19 @@
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H62" s="7">
         <v>14.0</v>
@@ -3616,19 +3622,19 @@
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H63" s="11">
         <v>14.0</v>
@@ -3653,13 +3659,13 @@
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H64" s="7">
         <v>14.0</v>
@@ -3685,19 +3691,19 @@
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H65" s="11">
         <v>14.0</v>
@@ -3723,19 +3729,19 @@
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H66" s="7">
         <v>14.0</v>
@@ -3760,13 +3766,13 @@
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H67" s="11">
         <v>14.0</v>
@@ -3792,19 +3798,19 @@
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H68" s="7">
         <v>14.0</v>
@@ -3830,19 +3836,19 @@
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H69" s="11">
         <v>14.0</v>
@@ -3867,13 +3873,13 @@
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H70" s="7">
         <v>14.0</v>
@@ -3899,19 +3905,19 @@
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H71" s="11">
         <v>14.0</v>
@@ -3937,19 +3943,19 @@
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H72" s="7">
         <v>14.0</v>
@@ -3974,13 +3980,13 @@
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H73" s="11">
         <v>14.0</v>
@@ -4006,19 +4012,19 @@
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H74" s="7">
         <v>14.0</v>
@@ -4044,19 +4050,19 @@
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H75" s="11">
         <v>14.0</v>
@@ -4081,13 +4087,13 @@
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H76" s="7">
         <v>14.0</v>
@@ -4113,19 +4119,19 @@
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H77" s="11">
         <v>14.0</v>
@@ -4151,19 +4157,19 @@
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H78" s="7">
         <v>14.0</v>
@@ -4188,13 +4194,13 @@
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H79" s="11">
         <v>14.0</v>
@@ -4220,19 +4226,19 @@
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H80" s="7">
         <v>14.0</v>
@@ -4258,19 +4264,19 @@
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H81" s="11">
         <v>14.0</v>
@@ -4295,13 +4301,13 @@
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H82" s="7">
         <v>14.0</v>
@@ -4327,19 +4333,19 @@
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H83" s="11">
         <v>14.0</v>
@@ -4365,19 +4371,19 @@
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H84" s="7">
         <v>14.0</v>
@@ -4402,13 +4408,13 @@
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H85" s="11">
         <v>14.0</v>
@@ -4434,19 +4440,19 @@
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H86" s="7">
         <v>14.0</v>
@@ -4472,19 +4478,19 @@
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H87" s="11">
         <v>14.0</v>
@@ -4509,13 +4515,13 @@
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H88" s="7">
         <v>14.0</v>
@@ -4541,19 +4547,19 @@
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H89" s="11">
         <v>14.0</v>
@@ -4579,19 +4585,19 @@
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H90" s="7">
         <v>14.0</v>
@@ -4616,13 +4622,13 @@
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H91" s="11">
         <v>14.0</v>
@@ -4648,19 +4654,19 @@
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H92" s="7">
         <v>14.0</v>
@@ -4686,19 +4692,19 @@
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H93" s="11">
         <v>14.0</v>
@@ -4723,13 +4729,13 @@
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H94" s="7">
         <v>14.0</v>
@@ -4755,19 +4761,19 @@
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H95" s="11">
         <v>14.0</v>
@@ -4793,19 +4799,19 @@
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H96" s="7">
         <v>14.0</v>
@@ -4830,13 +4836,13 @@
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H97" s="11">
         <v>14.0</v>
@@ -4862,19 +4868,19 @@
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H98" s="7">
         <v>14.0</v>
@@ -4900,19 +4906,19 @@
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H99" s="11">
         <v>14.0</v>
@@ -4937,13 +4943,13 @@
       </c>
       <c r="B100" s="7"/>
       <c r="C100" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H100" s="7">
         <v>14.0</v>
@@ -4969,19 +4975,19 @@
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H101" s="11">
         <v>14.0</v>
@@ -5007,19 +5013,19 @@
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H102" s="7">
         <v>14.0</v>
@@ -5044,13 +5050,13 @@
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H103" s="11">
         <v>14.0</v>
@@ -5076,19 +5082,19 @@
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H104" s="7">
         <v>14.0</v>
@@ -5114,19 +5120,19 @@
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H105" s="11">
         <v>14.0</v>
@@ -5151,13 +5157,13 @@
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H106" s="7">
         <v>14.0</v>
@@ -5183,19 +5189,19 @@
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H107" s="11">
         <v>14.0</v>
@@ -5221,19 +5227,19 @@
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H108" s="7">
         <v>14.0</v>
@@ -5258,13 +5264,13 @@
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H109" s="11">
         <v>14.0</v>
@@ -5304,7 +5310,7 @@
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="7"/>
       <c r="B111" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C111" s="7">
         <v>12.0</v>
@@ -5335,7 +5341,7 @@
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="7"/>
       <c r="B112" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C112" s="7">
         <v>12.0</v>
@@ -5346,7 +5352,7 @@
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G112" s="7">
         <v>7.0</v>
@@ -5366,7 +5372,7 @@
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="11"/>
       <c r="B113" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C113" s="11">
         <v>12.0</v>
@@ -5390,7 +5396,7 @@
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="7"/>
       <c r="B114" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C114" s="7">
         <v>36.0</v>
@@ -6329,34 +6335,34 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -6368,20 +6374,20 @@
         <v>8.0</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J2" s="11">
         <v>4.0</v>
@@ -6396,20 +6402,20 @@
         <v>8.0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J3" s="7">
         <v>4.0</v>
@@ -6424,20 +6430,20 @@
         <v>8.0</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J4" s="11">
         <v>4.0</v>
@@ -6452,20 +6458,20 @@
         <v>10.0</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J5" s="7">
         <v>4.0</v>
@@ -6480,20 +6486,20 @@
         <v>10.0</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J6" s="11">
         <v>4.0</v>
@@ -6508,20 +6514,20 @@
         <v>10.0</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J7" s="7">
         <v>4.0</v>
@@ -6536,20 +6542,20 @@
         <v>10.0</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J8" s="11">
         <v>4.0</v>
@@ -6564,20 +6570,20 @@
         <v>10.0</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J9" s="7">
         <v>4.0</v>
@@ -6592,20 +6598,20 @@
         <v>10.0</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J10" s="11">
         <v>4.0</v>
@@ -6620,20 +6626,20 @@
         <v>10.0</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J11" s="7">
         <v>4.0</v>
@@ -6648,20 +6654,20 @@
         <v>10.0</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J12" s="11">
         <v>4.0</v>
@@ -6676,20 +6682,20 @@
         <v>10.0</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J13" s="7">
         <v>4.0</v>
@@ -6704,20 +6710,20 @@
         <v>10.0</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J14" s="11">
         <v>4.0</v>
@@ -6732,20 +6738,20 @@
         <v>10.0</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J15" s="7">
         <v>4.0</v>
@@ -6760,20 +6766,20 @@
         <v>10.0</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J16" s="11">
         <v>4.0</v>
@@ -6788,20 +6794,20 @@
         <v>10.0</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J17" s="7">
         <v>4.0</v>
@@ -6816,20 +6822,20 @@
         <v>10.0</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>108</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J18" s="11">
         <v>4.0</v>
@@ -6844,20 +6850,20 @@
         <v>14.0</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J19" s="7">
         <v>4.0</v>
@@ -6872,20 +6878,20 @@
         <v>14.0</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J20" s="11">
         <v>4.0</v>
@@ -6900,20 +6906,20 @@
         <v>14.0</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J21" s="7">
         <v>4.0</v>
@@ -6928,20 +6934,20 @@
         <v>14.0</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J22" s="11">
         <v>4.0</v>
@@ -6956,20 +6962,20 @@
         <v>14.0</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J23" s="7">
         <v>4.0</v>
@@ -6984,20 +6990,20 @@
         <v>14.0</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J24" s="11">
         <v>4.0</v>
@@ -7012,20 +7018,20 @@
         <v>14.0</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J25" s="7">
         <v>4.0</v>
@@ -7040,20 +7046,20 @@
         <v>14.0</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J26" s="11">
         <v>4.0</v>
@@ -7068,16 +7074,16 @@
         <v>14.0</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J27" s="7">
         <v>4.0</v>
@@ -7092,20 +7098,20 @@
         <v>8.0</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J28" s="11">
         <v>4.0</v>
@@ -7120,20 +7126,20 @@
         <v>8.0</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J29" s="7">
         <v>4.0</v>
@@ -7148,20 +7154,20 @@
         <v>8.0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J30" s="11">
         <v>4.0</v>
@@ -7176,16 +7182,16 @@
         <v>8.0</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J31" s="7">
         <v>4.0</v>
@@ -7200,18 +7206,18 @@
         <v>14.0</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J32" s="11">
         <v>4.0</v>
@@ -7226,18 +7232,18 @@
         <v>14.0</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J33" s="7">
         <v>4.0</v>
@@ -7252,18 +7258,18 @@
         <v>10.0</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J34" s="11">
         <v>4.0</v>
@@ -7278,18 +7284,18 @@
         <v>10.0</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J35" s="7">
         <v>4.0</v>
@@ -7304,20 +7310,20 @@
         <v>10.0</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J36" s="11">
         <v>4.0</v>
@@ -7332,20 +7338,20 @@
         <v>12.0</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J37" s="7">
         <v>4.0</v>
@@ -7360,20 +7366,20 @@
         <v>14.0</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J38" s="11">
         <v>4.0</v>
@@ -7388,20 +7394,20 @@
         <v>14.0</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J39" s="7">
         <v>4.0</v>
@@ -7416,18 +7422,18 @@
         <v>12.0</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E40" s="11">
         <v>25010.0</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J40" s="11">
         <v>4.0</v>
@@ -7442,18 +7448,18 @@
         <v>12.0</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J41" s="7">
         <v>4.0</v>
